--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1712186.075063334</v>
+        <v>-1714773.58626891</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>188.362530749915</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406818</v>
+        <v>48.0814842140681</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812899</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>58.49760371036439</v>
       </c>
       <c r="U2" t="n">
         <v>251.0086695104302</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173975</v>
+        <v>11.79954938173972</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.820285945357</v>
+        <v>129.8202859453569</v>
       </c>
       <c r="T3" t="n">
         <v>191.0804331905373</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.33343874586454</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899012</v>
+        <v>98.62837588899009</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978308</v>
+        <v>92.33507763978305</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638284</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>213.0582270997653</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>224.7439421892166</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>273.0529551528095</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>84.99782759111436</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.9315966014008</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9.09957336114072</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>316.2883174616784</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>64.70670109159988</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.41839567467447</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>145.285756796909</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>150.6726801246957</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>147.6895341487363</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>182.281857503814</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.088380209462</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>146.2834074964107</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.0656089242822</v>
+        <v>83.06560892428139</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>135.0353110735031</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>18.50276072357164</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1098.004153147783</v>
+        <v>1249.178933521029</v>
       </c>
       <c r="C2" t="n">
-        <v>1098.004153147783</v>
+        <v>880.2164165806173</v>
       </c>
       <c r="D2" t="n">
-        <v>1098.004153147783</v>
+        <v>521.9507179738669</v>
       </c>
       <c r="E2" t="n">
-        <v>712.2159005495382</v>
+        <v>521.9507179738666</v>
       </c>
       <c r="F2" t="n">
-        <v>301.2299957599308</v>
+        <v>110.9648131842593</v>
       </c>
       <c r="G2" t="n">
-        <v>110.9648131842588</v>
+        <v>110.9648131842593</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>110.9648131842593</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247273</v>
+        <v>62.39765741247274</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730313</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315692</v>
+        <v>549.6723906315697</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529733</v>
+        <v>974.347669952974</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
         <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076069</v>
+        <v>2470.35445007607</v>
       </c>
       <c r="P2" t="n">
         <v>2841.109377259757</v>
@@ -4352,28 +4352,28 @@
         <v>3071.358140510236</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623636</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672838</v>
+        <v>3005.708673672839</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614955</v>
+        <v>2946.620185076511</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998359</v>
+        <v>2693.076074459915</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.377898654788</v>
+        <v>2362.013187116345</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.609243384674</v>
+        <v>2009.244531846231</v>
       </c>
       <c r="X2" t="n">
-        <v>1488.143485123594</v>
+        <v>1635.778773585151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1098.004153147783</v>
+        <v>1635.778773585151</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274066</v>
+        <v>931.3126773451369</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.997253992939</v>
+        <v>756.8596480640099</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331688</v>
+        <v>607.9252384027586</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326232</v>
+        <v>448.6877833973032</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531174</v>
+        <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046174</v>
+        <v>165.6989405756882</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906341</v>
+        <v>74.31639416170478</v>
       </c>
       <c r="I3" t="n">
-        <v>625.535263341402</v>
+        <v>62.39765741247274</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891821</v>
+        <v>147.6314117602528</v>
       </c>
       <c r="K3" t="n">
-        <v>934.6019044271152</v>
+        <v>371.4642984981861</v>
       </c>
       <c r="L3" t="n">
-        <v>1281.895384495309</v>
+        <v>718.7577785663801</v>
       </c>
       <c r="M3" t="n">
-        <v>1706.527363131964</v>
+        <v>1143.389757203036</v>
       </c>
       <c r="N3" t="n">
-        <v>2156.806731626992</v>
+        <v>1593.669125698064</v>
       </c>
       <c r="O3" t="n">
-        <v>2546.504589386187</v>
+        <v>1983.366983457259</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.64932860849</v>
+        <v>2410.51172267956</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623636</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623636</v>
+        <v>2556.745264694707</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.751268658629</v>
+        <v>2425.6136627297</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082329</v>
+        <v>2232.603124153399</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224565</v>
+        <v>2004.529278295636</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992823</v>
+        <v>1769.377170063893</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264621</v>
+        <v>1515.139813335692</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059088</v>
+        <v>1307.288313130159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294134</v>
+        <v>1099.528014365205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2214.644938628049</v>
+        <v>1790.965376549678</v>
       </c>
       <c r="C4" t="n">
-        <v>2045.708755700142</v>
+        <v>1731.032610139714</v>
       </c>
       <c r="D4" t="n">
-        <v>1895.592116287807</v>
+        <v>1580.915970727378</v>
       </c>
       <c r="E4" t="n">
-        <v>1747.679022705413</v>
+        <v>1433.002877144985</v>
       </c>
       <c r="F4" t="n">
-        <v>1747.679022705413</v>
+        <v>1433.002877144985</v>
       </c>
       <c r="G4" t="n">
-        <v>1579.899739906575</v>
+        <v>1433.002877144985</v>
       </c>
       <c r="H4" t="n">
         <v>1433.002877144985</v>
@@ -4501,37 +4501,37 @@
         <v>2536.261532090729</v>
       </c>
       <c r="O4" t="n">
-        <v>2825.000837712485</v>
+        <v>2825.000837712486</v>
       </c>
       <c r="P4" t="n">
-        <v>3048.546512699442</v>
+        <v>3048.546512699443</v>
       </c>
       <c r="Q4" t="n">
-        <v>3119.882870623636</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="R4" t="n">
-        <v>3026.615115431936</v>
+        <v>3026.615115431937</v>
       </c>
       <c r="S4" t="n">
-        <v>2833.596982943221</v>
+        <v>3026.615115431937</v>
       </c>
       <c r="T4" t="n">
-        <v>2611.503733862092</v>
+        <v>3026.615115431937</v>
       </c>
       <c r="U4" t="n">
-        <v>2396.293403458289</v>
+        <v>2737.508078766296</v>
       </c>
       <c r="V4" t="n">
-        <v>2396.293403458289</v>
+        <v>2482.823590560409</v>
       </c>
       <c r="W4" t="n">
-        <v>2396.293403458289</v>
+        <v>2193.406420523448</v>
       </c>
       <c r="X4" t="n">
-        <v>2396.293403458289</v>
+        <v>2193.406420523448</v>
       </c>
       <c r="Y4" t="n">
-        <v>2396.293403458289</v>
+        <v>1972.613841379918</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694471</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473092</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>764.3411331473092</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>353.3552283577016</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3231822431022</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1841.438156582316</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1552.335289707959</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.650801502072</v>
+        <v>1717.33116498602</v>
       </c>
       <c r="W7" t="n">
-        <v>1008.233631465111</v>
+        <v>1427.913994949059</v>
       </c>
       <c r="X7" t="n">
-        <v>1008.233631465111</v>
+        <v>1199.924444051042</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979147</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919558</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.1640136694029</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>527.2278307414961</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>377.1111913291603</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>229.1980977467672</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.605057643173</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.8124784996427</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647345</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368276</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038338</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235172</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235172</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579369</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373482</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336522</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438504</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949742</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>802.9288273958733</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>633.9926444679664</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1976.192826467915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.508338262028</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3090381835199</v>
+        <v>984.5772922261131</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408905</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2393.338457106056</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2393.338457106056</v>
+        <v>2299.202065907118</v>
       </c>
       <c r="T19" t="n">
-        <v>2393.338457106056</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U19" t="n">
-        <v>2104.263230450254</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V19" t="n">
-        <v>1849.578742244367</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400719</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121649</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121649</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121649</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121649</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270448</v>
+        <v>177.721318527044</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,13 +6002,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>849.3843576263196</v>
       </c>
       <c r="C25" t="n">
-        <v>344.917417812164</v>
+        <v>680.4481746984127</v>
       </c>
       <c r="D25" t="n">
-        <v>344.917417812164</v>
+        <v>530.3315352860768</v>
       </c>
       <c r="E25" t="n">
-        <v>344.917417812164</v>
+        <v>382.4184417036838</v>
       </c>
       <c r="F25" t="n">
-        <v>344.917417812164</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740954</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535067</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1251.825401600089</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400704</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121635</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121635</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121635</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121635</v>
+        <v>336.3048548543962</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270435</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,10 +6394,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138403</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703102</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,16 +6862,16 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>135.0615335795981</v>
+        <v>135.0615335795961</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113742</v>
+        <v>5.747744270113685</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>222.7279142976411</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.1589355769401</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.9133823527633</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>73.15773919921968</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.329716221303397</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>66.73277020259262</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694760178</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>103.9026168854301</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>13.28686650065968</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>34.74287850523385</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194169</v>
+        <v>57.2291039219425</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194262</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>147.0213775686972</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194301</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-4.618527782440651e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1301803.60690922</v>
+        <v>1301803.606909219</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1301803.60690922</v>
+        <v>1301803.606909219</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045139</v>
+        <v>99467.00901045142</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26347,7 +26347,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023815</v>
+        <v>54832.77288023826</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594296</v>
+        <v>32664.34410594306</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13682.85454400355</v>
+        <v>13682.85454400351</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179354</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>19157.891514887</v>
+      </c>
+      <c r="L4" t="n">
         <v>19157.89151488699</v>
       </c>
-      <c r="L4" t="n">
-        <v>19157.89151488704</v>
-      </c>
       <c r="M4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488698</v>
+        <v>19157.89151488699</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1289175.171621935</v>
+        <v>-1289569.992563089</v>
       </c>
       <c r="C6" t="n">
         <v>-129964.5149851338</v>
       </c>
       <c r="D6" t="n">
-        <v>-75131.74210489563</v>
+        <v>-75131.74210489562</v>
       </c>
       <c r="E6" t="n">
-        <v>-316630.0339295554</v>
+        <v>-316664.7718549905</v>
       </c>
       <c r="F6" t="n">
-        <v>8782.427877800292</v>
+        <v>8747.689952364599</v>
       </c>
       <c r="G6" t="n">
-        <v>8782.427877800248</v>
+        <v>8747.689952364555</v>
       </c>
       <c r="H6" t="n">
-        <v>8782.427877800234</v>
+        <v>8747.689952364555</v>
       </c>
       <c r="I6" t="n">
-        <v>8782.427877800219</v>
+        <v>8747.68995236457</v>
       </c>
       <c r="J6" t="n">
-        <v>-195292.2305725624</v>
+        <v>-195326.9684979981</v>
       </c>
       <c r="K6" t="n">
-        <v>-31830.08599510285</v>
+        <v>-31830.08599510296</v>
       </c>
       <c r="L6" t="n">
-        <v>834.2581108400627</v>
+        <v>834.2581108400773</v>
       </c>
       <c r="M6" t="n">
-        <v>-84220.76982467184</v>
+        <v>-84220.76982467168</v>
       </c>
       <c r="N6" t="n">
-        <v>834.2581108401646</v>
+        <v>834.2581108401064</v>
       </c>
       <c r="O6" t="n">
         <v>834.2581108401064</v>
       </c>
       <c r="P6" t="n">
-        <v>-18593.45988279166</v>
+        <v>-18593.45988279168</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310265</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559091</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310265</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
         <v>41.96894928303254</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559091</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638367</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559091</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638367</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559091</v>
+        <v>779.9707176559092</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638333</v>
+        <v>51.43073774638367</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>129.9390994314664</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>21.55480923451097</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>134.5511216850549</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.2060467224272</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>345.5834682595423</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>53.44278321679064</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>80.71434693133136</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.181305090411002e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6.201100239360874e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.286496450124668e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.51582450295488e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.722622624190989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578953</v>
+        <v>4.212292467578955</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359296</v>
+        <v>43.13914023359298</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563377</v>
+        <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201797</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727967</v>
+        <v>535.8193979727969</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774662</v>
+        <v>664.7313435774664</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477734</v>
+        <v>739.6416997477736</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212822</v>
+        <v>751.6098757212824</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967938</v>
+        <v>709.7238924967942</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034383</v>
+        <v>605.7329222034386</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.880198208267</v>
+        <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165568</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495548</v>
+        <v>95.98761460495552</v>
       </c>
       <c r="T2" t="n">
         <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063163</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195665</v>
+        <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665287</v>
+        <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967533</v>
+        <v>77.59708346967535</v>
       </c>
       <c r="J3" t="n">
         <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621702</v>
+        <v>363.9352639621704</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982518</v>
+        <v>489.355874798252</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640945</v>
+        <v>571.0552244640947</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278059</v>
+        <v>586.1693570278062</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012072</v>
+        <v>536.2304442012074</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825126</v>
+        <v>430.3722063825128</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861696</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938503</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.86288515848087</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284277</v>
+        <v>9.084295504284283</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891885</v>
+        <v>0.1482746817891886</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608676</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346624</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826817</v>
+        <v>56.82209903826819</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039334</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876261</v>
       </c>
       <c r="L4" t="n">
-        <v>280.915540408657</v>
+        <v>280.9155404086572</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957854</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328804</v>
+        <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.0707363503609</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431436</v>
+        <v>228.5251528431438</v>
       </c>
       <c r="Q4" t="n">
         <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.9583137373864</v>
+        <v>84.95831373738643</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314391</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964335</v>
+        <v>8.073272837964339</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059278</v>
+        <v>0.1030630575059279</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508041</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162578</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934932</v>
+        <v>176.4671532934934</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278161</v>
+        <v>315.7295469278163</v>
       </c>
       <c r="L2" t="n">
-        <v>428.964928607479</v>
+        <v>428.9649286074792</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205007</v>
+        <v>509.2954665205009</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246912</v>
+        <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751071</v>
+        <v>479.6256810751074</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481688</v>
+        <v>374.4999264481691</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338175</v>
+        <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242453</v>
+        <v>49.01487890242464</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139396</v>
+        <v>86.09470136139404</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878112</v>
+        <v>226.0938249878114</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183776</v>
+        <v>350.8014950183778</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420762</v>
+        <v>428.9211905420764</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444726</v>
+        <v>454.8276449444729</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567628</v>
+        <v>393.634199756763</v>
       </c>
       <c r="P3" t="n">
-        <v>431.4593325477804</v>
+        <v>431.4593325477786</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.710648500148</v>
+        <v>147.7106485001481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726054</v>
+        <v>40.22771958726059</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617431</v>
+        <v>197.2548206617433</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689733</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.769927057626</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121092</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644006</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080371</v>
+        <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615568</v>
+        <v>72.05692719615574</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287857</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096344</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010514</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010467</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,13 +35884,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,16 +35969,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
